--- a/data/trans_orig/P6607-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>86698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71605</v>
+        <v>72163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102097</v>
+        <v>101642</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3236497583986904</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2673082925546612</v>
+        <v>0.269391512724394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3811361726532387</v>
+        <v>0.3794373088209018</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -764,19 +764,19 @@
         <v>113282</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>100648</v>
+        <v>101343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125313</v>
+        <v>125179</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7074107131181457</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6285144018033904</v>
+        <v>0.6328552427450969</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7825404423506119</v>
+        <v>0.7817055621678554</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -785,19 +785,19 @@
         <v>199979</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>179395</v>
+        <v>178023</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220825</v>
+        <v>219306</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4672299401440624</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4191363985284608</v>
+        <v>0.4159317012495976</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5159346804022572</v>
+        <v>0.5123857423007655</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>57594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45796</v>
+        <v>43931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73920</v>
+        <v>71513</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2150033585399062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1709595017288713</v>
+        <v>0.1639977095937032</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2759485172756982</v>
+        <v>0.266963313715763</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -835,19 +835,19 @@
         <v>24285</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15657</v>
+        <v>15889</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34692</v>
+        <v>35077</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1516548880515007</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09777265291977655</v>
+        <v>0.09922257068257219</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2166426861435385</v>
+        <v>0.2190481064880477</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -856,19 +856,19 @@
         <v>81879</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65320</v>
+        <v>66534</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>99110</v>
+        <v>101398</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1913021852074971</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1526142689719009</v>
+        <v>0.1554502380362411</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2315599330100062</v>
+        <v>0.2369050868186605</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>49052</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37544</v>
+        <v>37895</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63079</v>
+        <v>62425</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1831149750554962</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1401553942103026</v>
+        <v>0.1414654080228755</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2354801421869944</v>
+        <v>0.2330396005815171</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -906,19 +906,19 @@
         <v>11424</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5998</v>
+        <v>6086</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19153</v>
+        <v>20049</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07134060412112385</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0374583138858507</v>
+        <v>0.03800444394014305</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1196043467499837</v>
+        <v>0.125197851814093</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -927,19 +927,19 @@
         <v>60476</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47448</v>
+        <v>46741</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75956</v>
+        <v>75369</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1412957532303786</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1108574978694783</v>
+        <v>0.1092062170708253</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1774633350298724</v>
+        <v>0.1760917652592277</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>74531</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60855</v>
+        <v>60473</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90592</v>
+        <v>91452</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2782319080059073</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2271775522535867</v>
+        <v>0.2257525706328088</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3381859235618438</v>
+        <v>0.3413981246663678</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -977,19 +977,19 @@
         <v>11144</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5172</v>
+        <v>5116</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19932</v>
+        <v>20169</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06959379470922973</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03229754201701446</v>
+        <v>0.03194610766171868</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1244705358558425</v>
+        <v>0.1259481399280108</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -998,19 +998,19 @@
         <v>85676</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68873</v>
+        <v>68576</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105173</v>
+        <v>103111</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2001721214180619</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1609139953163639</v>
+        <v>0.1602216037164962</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2457265623924338</v>
+        <v>0.2409068098508839</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>166492</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>148561</v>
+        <v>146766</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>187200</v>
+        <v>186204</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.408915566942999</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.364876209860342</v>
+        <v>0.3604671189432514</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4597746967319699</v>
+        <v>0.4573289108679207</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>179</v>
@@ -1123,19 +1123,19 @@
         <v>197196</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>181852</v>
+        <v>180808</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>211387</v>
+        <v>212627</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7289779545210762</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6722557149246658</v>
+        <v>0.6683959571303726</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7814402768169303</v>
+        <v>0.7860239957981349</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>330</v>
@@ -1144,19 +1144,19 @@
         <v>363688</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>336651</v>
+        <v>335886</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>389352</v>
+        <v>389125</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5366779820234951</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.496780539154726</v>
+        <v>0.4956515959198891</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5745499392228605</v>
+        <v>0.5742150502944438</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>81817</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66504</v>
+        <v>66157</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99153</v>
+        <v>98602</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2009487311990134</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.163337228621963</v>
+        <v>0.1624870812703079</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2435276033429088</v>
+        <v>0.2421735790480876</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1194,19 +1194,19 @@
         <v>46634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34925</v>
+        <v>35320</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60192</v>
+        <v>59512</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1723911572326556</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1291097455133852</v>
+        <v>0.1305683546808259</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2225126843214707</v>
+        <v>0.2200008671739716</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -1215,19 +1215,19 @@
         <v>128451</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>107774</v>
+        <v>107895</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>148688</v>
+        <v>149778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1895491267456731</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1590379963200686</v>
+        <v>0.1592160994069169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2194124100458387</v>
+        <v>0.2210201341383451</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>73865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59402</v>
+        <v>57940</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>90647</v>
+        <v>89615</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1814180144425677</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1458948143538463</v>
+        <v>0.142305344140096</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2226358523991564</v>
+        <v>0.2201012049227939</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1265,19 +1265,19 @@
         <v>8915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4048</v>
+        <v>3933</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17002</v>
+        <v>16041</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0329575897413731</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01496364650519431</v>
+        <v>0.0145397791781224</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06285249249825496</v>
+        <v>0.0592976310734469</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>77</v>
@@ -1286,19 +1286,19 @@
         <v>82781</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>66388</v>
+        <v>66779</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>102549</v>
+        <v>101160</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1221556232967986</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09796588237540783</v>
+        <v>0.0985423926989657</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1513276069848813</v>
+        <v>0.1492769643006428</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>84980</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68793</v>
+        <v>69004</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>102846</v>
+        <v>102897</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2087176874154199</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1689611358463027</v>
+        <v>0.1694783327943238</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2525959373436387</v>
+        <v>0.252721773233806</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -1336,19 +1336,19 @@
         <v>17765</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10343</v>
+        <v>10362</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28832</v>
+        <v>29101</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06567329850489519</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03823674848058906</v>
+        <v>0.03830440408521853</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1065835720273435</v>
+        <v>0.1075776757068499</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>93</v>
@@ -1357,19 +1357,19 @@
         <v>102746</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>84470</v>
+        <v>83431</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>122162</v>
+        <v>123154</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1516172679340332</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1246480435363345</v>
+        <v>0.1231148898055759</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1802688976849714</v>
+        <v>0.1817328377722038</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>133724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>116365</v>
+        <v>114466</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>152295</v>
+        <v>152791</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4190040184500574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3646105304567218</v>
+        <v>0.3586618268235387</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4771912998657533</v>
+        <v>0.4787467784539071</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -1482,19 +1482,19 @@
         <v>152834</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>137764</v>
+        <v>136178</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>166521</v>
+        <v>165670</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7130391687573865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6427320167013432</v>
+        <v>0.6353284111408736</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7768944288098227</v>
+        <v>0.7729226489653346</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>260</v>
@@ -1503,19 +1503,19 @@
         <v>286558</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>262690</v>
+        <v>263339</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>307632</v>
+        <v>311642</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5371392015038239</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4923990240046157</v>
+        <v>0.493615487527065</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5766415149347948</v>
+        <v>0.5841570900677101</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>62000</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>47393</v>
+        <v>48025</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>78129</v>
+        <v>78285</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1942659297807753</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1484992561695586</v>
+        <v>0.1504773733538544</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2448040887333448</v>
+        <v>0.2452951539358914</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>34</v>
@@ -1553,19 +1553,19 @@
         <v>36487</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>26073</v>
+        <v>26098</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>49364</v>
+        <v>50494</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1702300659855128</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1216428957375216</v>
+        <v>0.1217591097081044</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2303054957803661</v>
+        <v>0.2355758439515888</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>91</v>
@@ -1574,19 +1574,19 @@
         <v>98487</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>81461</v>
+        <v>79979</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>118840</v>
+        <v>120441</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1846089851388137</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1526949898145878</v>
+        <v>0.1499156983292651</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2227602768562602</v>
+        <v>0.2257597250903058</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>63559</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49231</v>
+        <v>50762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80693</v>
+        <v>81754</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1991514946926063</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1542577727468126</v>
+        <v>0.1590545683383808</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2528383045477232</v>
+        <v>0.2561647760782988</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1624,19 +1624,19 @@
         <v>13855</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7102</v>
+        <v>7824</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23149</v>
+        <v>22744</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06463924777072878</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03313473315233702</v>
+        <v>0.03650454913114724</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1079988507176469</v>
+        <v>0.1061088108712027</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -1645,19 +1645,19 @@
         <v>77414</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60691</v>
+        <v>60313</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96840</v>
+        <v>94530</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.145108197840239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.113761841843204</v>
+        <v>0.113054095301539</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1815211505276157</v>
+        <v>0.1771923868171671</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>59865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44130</v>
+        <v>46546</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74704</v>
+        <v>77281</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1875785570765611</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1382756215011656</v>
+        <v>0.1458447667176952</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2340735085938382</v>
+        <v>0.2421484932477958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1695,19 +1695,19 @@
         <v>11165</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5838</v>
+        <v>5178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20160</v>
+        <v>20389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.052091517486372</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0272379942263185</v>
+        <v>0.02415827940506643</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09405300122666063</v>
+        <v>0.09512551515895007</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>64</v>
@@ -1716,19 +1716,19 @@
         <v>71031</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56503</v>
+        <v>55337</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>86390</v>
+        <v>88428</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1331436155171236</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1059126488647748</v>
+        <v>0.103725836695498</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1619334239477793</v>
+        <v>0.165753462836536</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>190322</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>170791</v>
+        <v>170764</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>211603</v>
+        <v>211831</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4587404679393611</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4116630689077762</v>
+        <v>0.4115984568044699</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5100353017079072</v>
+        <v>0.5105840763557177</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>218</v>
@@ -1841,19 +1841,19 @@
         <v>226254</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>210283</v>
+        <v>208338</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>240250</v>
+        <v>239783</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.757549796912721</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7040779493390502</v>
+        <v>0.6975629361766739</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.804411942796341</v>
+        <v>0.8028499719213525</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>399</v>
@@ -1862,19 +1862,19 @@
         <v>416575</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>390295</v>
+        <v>386608</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>444663</v>
+        <v>441156</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.583811626324826</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5469808380355999</v>
+        <v>0.5418136326881663</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6231756090802777</v>
+        <v>0.6182597246092096</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>96001</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78495</v>
+        <v>79010</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>113564</v>
+        <v>113687</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2313951223337683</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1891992799762375</v>
+        <v>0.1904406831203796</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2737266480176286</v>
+        <v>0.2740227204132314</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>40</v>
@@ -1912,19 +1912,19 @@
         <v>43114</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30233</v>
+        <v>33123</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55873</v>
+        <v>56438</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1443559939644393</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1012284994254941</v>
+        <v>0.1109047179723762</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1870756000842525</v>
+        <v>0.1889682777328041</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>133</v>
@@ -1933,19 +1933,19 @@
         <v>139115</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>116327</v>
+        <v>120731</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>161264</v>
+        <v>162120</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1949635803621196</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1630264663925343</v>
+        <v>0.1691984142483727</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2260048229183599</v>
+        <v>0.2272044035990465</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>73371</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>58381</v>
+        <v>59921</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>89153</v>
+        <v>91599</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1768488248867941</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.140718007028445</v>
+        <v>0.1444287248385217</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2148898203013642</v>
+        <v>0.2207843684318323</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1983,19 +1983,19 @@
         <v>15543</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8865</v>
+        <v>8805</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26413</v>
+        <v>25588</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05204265871775176</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02968349653962042</v>
+        <v>0.0294822930709682</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08843593866918008</v>
+        <v>0.0856745654377805</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>88</v>
@@ -2004,19 +2004,19 @@
         <v>88914</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>71199</v>
+        <v>70929</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>106347</v>
+        <v>108322</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1246093187440572</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09978290829003962</v>
+        <v>0.09940339106930673</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1490405663135518</v>
+        <v>0.1518088391195438</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>55186</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42235</v>
+        <v>42480</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70616</v>
+        <v>71323</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1330155848400764</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1018006574715899</v>
+        <v>0.1023910021411173</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1702088303821832</v>
+        <v>0.1719123732286277</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2054,19 +2054,19 @@
         <v>13754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7790</v>
+        <v>7741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23624</v>
+        <v>23370</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04605155040508799</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02608401460830854</v>
+        <v>0.02591772123250809</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07909857426800751</v>
+        <v>0.07824813214740302</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -2075,19 +2075,19 @@
         <v>68939</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54660</v>
+        <v>53917</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86200</v>
+        <v>86564</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09661547456899733</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07660344945469096</v>
+        <v>0.07556193126103784</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1208055232767832</v>
+        <v>0.1213154813888838</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>577236</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>542562</v>
+        <v>538821</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>619147</v>
+        <v>616030</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4096611050399486</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3850528493062589</v>
+        <v>0.3823982627056556</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4394048935319476</v>
+        <v>0.4371924598500705</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>638</v>
@@ -2200,19 +2200,19 @@
         <v>689565</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>662302</v>
+        <v>656306</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>717363</v>
+        <v>716810</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7307406556153411</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7018497808869598</v>
+        <v>0.6954959432260757</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7601985883012984</v>
+        <v>0.7596131501236321</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1178</v>
@@ -2221,19 +2221,19 @@
         <v>1266801</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1219838</v>
+        <v>1220507</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1318093</v>
+        <v>1321748</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5384434084851311</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5184821517581393</v>
+        <v>0.5187666395403787</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5602445856131241</v>
+        <v>0.5617982309377839</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>297412</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>266181</v>
+        <v>263245</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>331849</v>
+        <v>330456</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2110715648849366</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1889069041620172</v>
+        <v>0.1868233499576826</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2355111535816037</v>
+        <v>0.2345227992528803</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>140</v>
@@ -2271,19 +2271,19 @@
         <v>150520</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>128856</v>
+        <v>128483</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>175460</v>
+        <v>177301</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1595082939541691</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1365505214429612</v>
+        <v>0.1361553046982066</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1859374531081479</v>
+        <v>0.1878883623196319</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>423</v>
@@ -2292,19 +2292,19 @@
         <v>447932</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>407171</v>
+        <v>406523</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>489587</v>
+        <v>487361</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1903899712059489</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1730646929568199</v>
+        <v>0.1727892773705041</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2080951220635164</v>
+        <v>0.2071486079873889</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>259847</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>229727</v>
+        <v>231298</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>289969</v>
+        <v>290201</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1844118756893433</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1630355747679474</v>
+        <v>0.1641510422596099</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2057890686582554</v>
+        <v>0.2059539248297516</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -2342,19 +2342,19 @@
         <v>49738</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36333</v>
+        <v>36888</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65337</v>
+        <v>65946</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05270768436512696</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03850277335076743</v>
+        <v>0.03909037180350008</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06923830616411006</v>
+        <v>0.06988337939118502</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>292</v>
@@ -2363,19 +2363,19 @@
         <v>309585</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>277761</v>
+        <v>275535</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>342709</v>
+        <v>343363</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1315864338269692</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1180599688995354</v>
+        <v>0.1171139357283587</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1456654457025126</v>
+        <v>0.1459436692018662</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>274563</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>245152</v>
+        <v>244796</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>307896</v>
+        <v>308576</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1948554543857715</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1739828038555483</v>
+        <v>0.1737305243181477</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2185119134251078</v>
+        <v>0.2189943687047415</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>48</v>
@@ -2413,19 +2413,19 @@
         <v>53829</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>39635</v>
+        <v>41206</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>71238</v>
+        <v>71290</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05704336606536289</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04200181780630149</v>
+        <v>0.04366630899011958</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07549213020176493</v>
+        <v>0.07554669064269236</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>303</v>
@@ -2434,19 +2434,19 @@
         <v>328392</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>296282</v>
+        <v>296157</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>364299</v>
+        <v>364593</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1395801864819508</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.125932286911103</v>
+        <v>0.125879199554112</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1548423255723586</v>
+        <v>0.1549671090631908</v>
       </c>
     </row>
     <row r="28">
@@ -2778,19 +2778,19 @@
         <v>97336</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82584</v>
+        <v>81050</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113887</v>
+        <v>112843</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4052070757163406</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3437930592433437</v>
+        <v>0.3374102502524816</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4741099592830196</v>
+        <v>0.4697617394315539</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -2799,19 +2799,19 @@
         <v>112440</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>100824</v>
+        <v>101327</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123091</v>
+        <v>122731</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6883331027163326</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6172217976914341</v>
+        <v>0.6202999443588489</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7535372639418905</v>
+        <v>0.7513345665445759</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>207</v>
@@ -2820,19 +2820,19 @@
         <v>209776</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>191449</v>
+        <v>188584</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230844</v>
+        <v>231355</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5198085675470194</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4743947898105716</v>
+        <v>0.4672968682414421</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5720137251468225</v>
+        <v>0.5732807056688195</v>
       </c>
     </row>
     <row r="5">
@@ -2849,19 +2849,19 @@
         <v>50450</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39765</v>
+        <v>38363</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64269</v>
+        <v>63435</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2100212245126037</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1655412430820712</v>
+        <v>0.1597050318808378</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2675510227735182</v>
+        <v>0.2640794043393441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -2870,19 +2870,19 @@
         <v>32545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23224</v>
+        <v>23294</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42806</v>
+        <v>43473</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1992320573628664</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1421735188736235</v>
+        <v>0.1425991091975227</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2620484438063527</v>
+        <v>0.2661344791429173</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>82</v>
@@ -2891,19 +2891,19 @@
         <v>82995</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67055</v>
+        <v>65890</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>100729</v>
+        <v>98569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2056540716087469</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1661580326099875</v>
+        <v>0.1632703296347681</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2495981051256152</v>
+        <v>0.244246754491937</v>
       </c>
     </row>
     <row r="6">
@@ -2920,19 +2920,19 @@
         <v>45487</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34123</v>
+        <v>34563</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58023</v>
+        <v>57841</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1893605402638688</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1420543871631744</v>
+        <v>0.1438831024464328</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2415494076281977</v>
+        <v>0.2407904310665989</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -2941,19 +2941,19 @@
         <v>6363</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2651</v>
+        <v>2765</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12302</v>
+        <v>12568</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03895550364913698</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0162285491497167</v>
+        <v>0.01692623259537118</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07531012079146175</v>
+        <v>0.07694034156456094</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>52</v>
@@ -2962,19 +2962,19 @@
         <v>51850</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39894</v>
+        <v>39508</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65154</v>
+        <v>66664</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1284807908549717</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09885298939252238</v>
+        <v>0.09789756403914517</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1614453688844307</v>
+        <v>0.1651871188064665</v>
       </c>
     </row>
     <row r="7">
@@ -2991,19 +2991,19 @@
         <v>46940</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34195</v>
+        <v>35014</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60746</v>
+        <v>59869</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1954111595071869</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1423528068410462</v>
+        <v>0.1457638513357614</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2528824450707339</v>
+        <v>0.2492337317781039</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -3012,19 +3012,19 @@
         <v>12003</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6260</v>
+        <v>7077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18992</v>
+        <v>20305</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07347933627166396</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03832414778485387</v>
+        <v>0.04332287502925624</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1162637595057182</v>
+        <v>0.1243010086699239</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -3033,19 +3033,19 @@
         <v>58943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46047</v>
+        <v>46246</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75393</v>
+        <v>75044</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1460565699892619</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1141000843434003</v>
+        <v>0.1145948699289278</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1868189377999461</v>
+        <v>0.1859531513970029</v>
       </c>
     </row>
     <row r="8">
@@ -3137,19 +3137,19 @@
         <v>142599</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>122226</v>
+        <v>121911</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>161470</v>
+        <v>162596</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3505019935373178</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3004247742851175</v>
+        <v>0.2996501190365127</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3968858520620276</v>
+        <v>0.399652517124117</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>194</v>
@@ -3158,19 +3158,19 @@
         <v>197375</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>181883</v>
+        <v>182457</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>211188</v>
+        <v>211832</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7236467222160867</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6668450783070319</v>
+        <v>0.6689498053670953</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.774289182746526</v>
+        <v>0.7766515503007826</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>324</v>
@@ -3179,19 +3179,19 @@
         <v>339975</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>311930</v>
+        <v>313039</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>365918</v>
+        <v>364886</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5002614252124434</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4589945249418095</v>
+        <v>0.4606264467874032</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5384363193487205</v>
+        <v>0.5369171938076034</v>
       </c>
     </row>
     <row r="10">
@@ -3208,19 +3208,19 @@
         <v>105418</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88147</v>
+        <v>86206</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>124370</v>
+        <v>124270</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2591112313160092</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2166597746743596</v>
+        <v>0.2118900098829271</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3056945418212759</v>
+        <v>0.3054489317083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -3229,19 +3229,19 @@
         <v>40387</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29591</v>
+        <v>29492</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52740</v>
+        <v>53001</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1480725757801229</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1084913233115512</v>
+        <v>0.1081290489557495</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1933628624113146</v>
+        <v>0.1943206838502803</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>132</v>
@@ -3250,19 +3250,19 @@
         <v>145805</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125116</v>
+        <v>124163</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>169239</v>
+        <v>169846</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2145465231238161</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1841038499868101</v>
+        <v>0.1827019039021981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2490295463339897</v>
+        <v>0.2499221671862728</v>
       </c>
     </row>
     <row r="11">
@@ -3279,19 +3279,19 @@
         <v>60544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46832</v>
+        <v>46104</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>76133</v>
+        <v>76563</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1488140125915722</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1151118003917782</v>
+        <v>0.1133225132176912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1871301268037681</v>
+        <v>0.1881889740531269</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -3300,19 +3300,19 @@
         <v>15848</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8999</v>
+        <v>9075</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25157</v>
+        <v>25339</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05810529011909756</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03299415251276894</v>
+        <v>0.03327326606281904</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09223345132138409</v>
+        <v>0.09290248734969835</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>66</v>
@@ -3321,19 +3321,19 @@
         <v>76392</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58904</v>
+        <v>60598</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>94871</v>
+        <v>95636</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1124086028902092</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08667520323788444</v>
+        <v>0.08916779332031256</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1395997620926189</v>
+        <v>0.1407258422108851</v>
       </c>
     </row>
     <row r="12">
@@ -3350,19 +3350,19 @@
         <v>98282</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>81598</v>
+        <v>80161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116636</v>
+        <v>117691</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2415727625551009</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2005633492178196</v>
+        <v>0.197032338294081</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2866848950240471</v>
+        <v>0.2892783817439865</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -3371,19 +3371,19 @@
         <v>19140</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12060</v>
+        <v>12123</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30171</v>
+        <v>29392</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07017541188469276</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04421629536134739</v>
+        <v>0.04444574410514002</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1106160718204934</v>
+        <v>0.1077610409167103</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>110</v>
@@ -3392,19 +3392,19 @@
         <v>117423</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>98713</v>
+        <v>98299</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>137590</v>
+        <v>139171</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1727834487735311</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1452530009677995</v>
+        <v>0.1446440219761978</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2024589621151796</v>
+        <v>0.2047854291188166</v>
       </c>
     </row>
     <row r="13">
@@ -3496,19 +3496,19 @@
         <v>110830</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93672</v>
+        <v>93933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130514</v>
+        <v>129971</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3064535175428564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2590104639042442</v>
+        <v>0.2597312477790389</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3608821316098416</v>
+        <v>0.3593793283650054</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>149</v>
@@ -3517,19 +3517,19 @@
         <v>150089</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>133911</v>
+        <v>132323</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>166581</v>
+        <v>166512</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5568661924956331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4968436159556552</v>
+        <v>0.4909505144827974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.618056247168116</v>
+        <v>0.6178011631969132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>251</v>
@@ -3538,19 +3538,19 @@
         <v>260919</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>235795</v>
+        <v>237581</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>286983</v>
+        <v>286431</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4133841069979864</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3735793261621154</v>
+        <v>0.3764085210282079</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.454678879463598</v>
+        <v>0.4538044568104218</v>
       </c>
     </row>
     <row r="15">
@@ -3567,19 +3567,19 @@
         <v>116959</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>98362</v>
+        <v>98948</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>136420</v>
+        <v>136289</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3233993515867964</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2719770998904152</v>
+        <v>0.2735994207128498</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.37721058996795</v>
+        <v>0.376848413213028</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>76</v>
@@ -3588,19 +3588,19 @@
         <v>80618</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>66026</v>
+        <v>66947</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>97354</v>
+        <v>97046</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2991140279680517</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2449739159374551</v>
+        <v>0.2483893743241301</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3612064431707224</v>
+        <v>0.3600655307153618</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>180</v>
@@ -3609,19 +3609,19 @@
         <v>197577</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>175180</v>
+        <v>175193</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>222769</v>
+        <v>222129</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3130290938905728</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2775450925107105</v>
+        <v>0.2775647355465739</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3529421465931334</v>
+        <v>0.35192764823544</v>
       </c>
     </row>
     <row r="16">
@@ -3638,19 +3638,19 @@
         <v>59150</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45329</v>
+        <v>44474</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73985</v>
+        <v>75235</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1635532413651274</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1253389475363306</v>
+        <v>0.1229741774515877</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2045742408447024</v>
+        <v>0.2080317054937972</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -3659,19 +3659,19 @@
         <v>20309</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13246</v>
+        <v>13394</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30411</v>
+        <v>30101</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07535212571350328</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04914466946634953</v>
+        <v>0.04969619341453269</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1128320758814625</v>
+        <v>0.1116836772456854</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -3680,19 +3680,19 @@
         <v>79459</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62834</v>
+        <v>62407</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>97208</v>
+        <v>98370</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.125889823213443</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09954965360473189</v>
+        <v>0.09887415793553427</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1540109406741907</v>
+        <v>0.1558516687778497</v>
       </c>
     </row>
     <row r="17">
@@ -3709,19 +3709,19 @@
         <v>74716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59308</v>
+        <v>60439</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92897</v>
+        <v>92658</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2065938895052199</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1639910616628793</v>
+        <v>0.1671169412826405</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2568661568928112</v>
+        <v>0.2562062764461013</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -3730,19 +3730,19 @@
         <v>18508</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11544</v>
+        <v>10991</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28223</v>
+        <v>28472</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06866765382281191</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04283116741274997</v>
+        <v>0.04077838756400827</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1047142560072459</v>
+        <v>0.1056386660141333</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>85</v>
@@ -3751,19 +3751,19 @@
         <v>93223</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75918</v>
+        <v>76644</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>112220</v>
+        <v>112522</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1476969758979979</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1202802845250105</v>
+        <v>0.1214302427172046</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1777946179740829</v>
+        <v>0.1782723428208302</v>
       </c>
     </row>
     <row r="18">
@@ -3855,19 +3855,19 @@
         <v>191044</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>173126</v>
+        <v>172777</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>213017</v>
+        <v>212444</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4810389228616289</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4359228884730722</v>
+        <v>0.4350447755840857</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5363662302398042</v>
+        <v>0.5349247260290277</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>240</v>
@@ -3876,19 +3876,19 @@
         <v>255075</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>238113</v>
+        <v>239415</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>270061</v>
+        <v>270030</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7861115557960521</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7338347961964142</v>
+        <v>0.7378480155816892</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8322972695436892</v>
+        <v>0.8321992948024395</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>427</v>
@@ -3897,19 +3897,19 @@
         <v>446119</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>420024</v>
+        <v>420628</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>472758</v>
+        <v>473114</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6182141811934045</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5820535356026556</v>
+        <v>0.5828904036262406</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6551300515115656</v>
+        <v>0.6556235758723278</v>
       </c>
     </row>
     <row r="20">
@@ -3926,19 +3926,19 @@
         <v>86930</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71211</v>
+        <v>70791</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>103348</v>
+        <v>102182</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2188850522530741</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1793066151466078</v>
+        <v>0.1782491557531563</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2602265318539695</v>
+        <v>0.2572895412016613</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -3947,19 +3947,19 @@
         <v>38332</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26983</v>
+        <v>27217</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52294</v>
+        <v>51465</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1181343398479063</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08315802818869304</v>
+        <v>0.08387913705202392</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1611655045559571</v>
+        <v>0.1586100303375066</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>121</v>
@@ -3968,19 +3968,19 @@
         <v>125262</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>104287</v>
+        <v>105843</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>148934</v>
+        <v>146898</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1735827094360436</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1445169177409578</v>
+        <v>0.1466731095436472</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.20638668159231</v>
+        <v>0.2035649198726009</v>
       </c>
     </row>
     <row r="21">
@@ -3997,19 +3997,19 @@
         <v>62792</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>49972</v>
+        <v>49991</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>78039</v>
+        <v>77915</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1581073918025633</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1258265859021493</v>
+        <v>0.1258756741093543</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1964984651623778</v>
+        <v>0.1961857103446904</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -4018,19 +4018,19 @@
         <v>21680</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14057</v>
+        <v>13644</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31869</v>
+        <v>32270</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06681457929328256</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04332176459110949</v>
+        <v>0.04204840435156734</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09821642390133331</v>
+        <v>0.09945124217429027</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>83</v>
@@ -4039,19 +4039,19 @@
         <v>84472</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>68441</v>
+        <v>67210</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>103647</v>
+        <v>101404</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1170577734892521</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09484337046728797</v>
+        <v>0.09313714835710679</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.14362942613987</v>
+        <v>0.1405216704919781</v>
       </c>
     </row>
     <row r="22">
@@ -4068,19 +4068,19 @@
         <v>56383</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43719</v>
+        <v>43308</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72424</v>
+        <v>71129</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1419686330827337</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1100821409183508</v>
+        <v>0.1090478968773343</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1823590728768756</v>
+        <v>0.1790986614097042</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4089,19 +4089,19 @@
         <v>9390</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4665</v>
+        <v>4000</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17059</v>
+        <v>16436</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0289395250627591</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01437797207612897</v>
+        <v>0.01232860100873186</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05257246510595914</v>
+        <v>0.05065437047735814</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -4110,19 +4110,19 @@
         <v>65773</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52141</v>
+        <v>51963</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>83766</v>
+        <v>83220</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09114533588129967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0722544813102004</v>
+        <v>0.07200890513219457</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1160798733417543</v>
+        <v>0.1153230139473898</v>
       </c>
     </row>
     <row r="23">
@@ -4214,19 +4214,19 @@
         <v>541809</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>505291</v>
+        <v>500629</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>579099</v>
+        <v>581497</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3853938829073705</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3594179366831535</v>
+        <v>0.3561017931656479</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4119187951365201</v>
+        <v>0.4136244830194895</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>699</v>
@@ -4235,19 +4235,19 @@
         <v>714980</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>684077</v>
+        <v>683055</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>746024</v>
+        <v>742041</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6940851604243026</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6640857539219146</v>
+        <v>0.6630933231053545</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7242222292138771</v>
+        <v>0.7203558588130975</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1209</v>
@@ -4256,19 +4256,19 @@
         <v>1256788</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1204256</v>
+        <v>1205362</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1305942</v>
+        <v>1313616</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5159312799252725</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4943657905413988</v>
+        <v>0.4948200960588408</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5361097519994469</v>
+        <v>0.5392597733211311</v>
       </c>
     </row>
     <row r="25">
@@ -4285,19 +4285,19 @@
         <v>359756</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>326627</v>
+        <v>322706</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>394229</v>
+        <v>391215</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2558977271405577</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2323329771601815</v>
+        <v>0.2295439228822237</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2804189878862712</v>
+        <v>0.278274594960395</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>185</v>
@@ -4306,19 +4306,19 @@
         <v>191882</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>165838</v>
+        <v>169402</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>220210</v>
+        <v>218195</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1862745541205312</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1609918633432872</v>
+        <v>0.1644512829926979</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2137746127480789</v>
+        <v>0.2118183880723612</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>515</v>
@@ -4327,19 +4327,19 @@
         <v>551638</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>508385</v>
+        <v>507044</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>592756</v>
+        <v>595179</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2264559241480427</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2087000408710491</v>
+        <v>0.2081496250294268</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2433357092475489</v>
+        <v>0.2443303575818695</v>
       </c>
     </row>
     <row r="26">
@@ -4356,19 +4356,19 @@
         <v>227973</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>200277</v>
+        <v>199910</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>256384</v>
+        <v>257536</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1621589877802695</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1424587212734419</v>
+        <v>0.1421976324792482</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1823686237700601</v>
+        <v>0.1831879767553332</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>64</v>
@@ -4377,19 +4377,19 @@
         <v>64201</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51624</v>
+        <v>50288</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80527</v>
+        <v>82276</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06232453421826665</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05011546121020825</v>
+        <v>0.04881847275095813</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07817388117077732</v>
+        <v>0.07987154430185665</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>274</v>
@@ -4398,19 +4398,19 @@
         <v>292173</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>258486</v>
+        <v>257244</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>323812</v>
+        <v>325812</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1199416313148811</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1061124142803984</v>
+        <v>0.105602826783203</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1329300568089012</v>
+        <v>0.1337508775492651</v>
       </c>
     </row>
     <row r="27">
@@ -4427,19 +4427,19 @@
         <v>276321</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>246522</v>
+        <v>247848</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>310440</v>
+        <v>307814</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1965494021718023</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.175353338346937</v>
+        <v>0.1762964188977535</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2208185372358573</v>
+        <v>0.2189511098471361</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>58</v>
@@ -4448,19 +4448,19 @@
         <v>59041</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>44819</v>
+        <v>46428</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>74632</v>
+        <v>76877</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05731575123689958</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04350918315057337</v>
+        <v>0.04507136576811675</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07245089481697276</v>
+        <v>0.0746305593501531</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>316</v>
@@ -4469,19 +4469,19 @@
         <v>335362</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>302622</v>
+        <v>300988</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>371406</v>
+        <v>372499</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1376711646118037</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1242311017679231</v>
+        <v>0.1235601918878849</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1524677851766084</v>
+        <v>0.1529166100995598</v>
       </c>
     </row>
     <row r="28">
@@ -4813,19 +4813,19 @@
         <v>47848</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35167</v>
+        <v>35070</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63508</v>
+        <v>63023</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2478974802729948</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1821988380905536</v>
+        <v>0.1816966980299581</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3290338677824343</v>
+        <v>0.3265188950969393</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>117</v>
@@ -4834,19 +4834,19 @@
         <v>79990</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70056</v>
+        <v>69711</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91044</v>
+        <v>90311</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5855493459111566</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5128330099770049</v>
+        <v>0.5103064575623883</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6664719446792801</v>
+        <v>0.6611090217278851</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>157</v>
@@ -4855,19 +4855,19 @@
         <v>127837</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110599</v>
+        <v>109308</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146789</v>
+        <v>145695</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3878322333167793</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3355352430138822</v>
+        <v>0.3316192061260084</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4453291510617058</v>
+        <v>0.4420110142170014</v>
       </c>
     </row>
     <row r="5">
@@ -4884,19 +4884,19 @@
         <v>56477</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42850</v>
+        <v>42865</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73008</v>
+        <v>73345</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2926076814692058</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2220035219233778</v>
+        <v>0.2220808397804779</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3782510064341681</v>
+        <v>0.3800002269480948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -4905,19 +4905,19 @@
         <v>22075</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15632</v>
+        <v>15674</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30835</v>
+        <v>30851</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1615971359994418</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1144344700900191</v>
+        <v>0.1147379087893277</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2257253700808095</v>
+        <v>0.2258412736468076</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>83</v>
@@ -4926,19 +4926,19 @@
         <v>78552</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62685</v>
+        <v>64259</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>94616</v>
+        <v>97707</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2383123252395173</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1901751143667385</v>
+        <v>0.1949480240078513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2870471331373273</v>
+        <v>0.2964236012359521</v>
       </c>
     </row>
     <row r="6">
@@ -4955,19 +4955,19 @@
         <v>27122</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18082</v>
+        <v>17255</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42355</v>
+        <v>41778</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.140517903701009</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09368031371431024</v>
+        <v>0.08939840394849771</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2194417843296285</v>
+        <v>0.2164506785995084</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -4976,19 +4976,19 @@
         <v>11180</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6571</v>
+        <v>6444</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18708</v>
+        <v>17371</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08183831925828824</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04810162311841227</v>
+        <v>0.047172627766744</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1369484363750951</v>
+        <v>0.1271622150550591</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>39</v>
@@ -4997,19 +4997,19 @@
         <v>38301</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26810</v>
+        <v>27108</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>54275</v>
+        <v>52978</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1161990297561408</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08133587843938632</v>
+        <v>0.082239988878169</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.164659568639979</v>
+        <v>0.160725746844955</v>
       </c>
     </row>
     <row r="7">
@@ -5026,19 +5026,19 @@
         <v>61567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46244</v>
+        <v>46578</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77775</v>
+        <v>78717</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3189769345567903</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2395891990204677</v>
+        <v>0.241321083304109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4029501308208672</v>
+        <v>0.4078315575561081</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -5047,19 +5047,19 @@
         <v>23362</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16327</v>
+        <v>15746</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33360</v>
+        <v>32516</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1710151988311133</v>
+        <v>0.1710151988311132</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1195219922021</v>
+        <v>0.1152646501461084</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2442071094059506</v>
+        <v>0.2380268893929965</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -5068,19 +5068,19 @@
         <v>84928</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68037</v>
+        <v>68324</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103249</v>
+        <v>104733</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2576564116875626</v>
+        <v>0.2576564116875625</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2064113246963561</v>
+        <v>0.2072810548777533</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3132362471927457</v>
+        <v>0.3177388594974225</v>
       </c>
     </row>
     <row r="8">
@@ -5172,19 +5172,19 @@
         <v>134842</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>117269</v>
+        <v>116124</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>156624</v>
+        <v>153414</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4080704094298163</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3548887699288132</v>
+        <v>0.351424916948513</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4739898538812806</v>
+        <v>0.4642738982432628</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>187</v>
@@ -5193,19 +5193,19 @@
         <v>139987</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>126189</v>
+        <v>127119</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>152398</v>
+        <v>151648</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6442514870386772</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5807496158985492</v>
+        <v>0.5850302251730466</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7013659751303046</v>
+        <v>0.6979136481969134</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>298</v>
@@ -5214,19 +5214,19 @@
         <v>274829</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>251257</v>
+        <v>251020</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>298751</v>
+        <v>300267</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.5017653360218093</v>
+        <v>0.5017653360218092</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4587294796757685</v>
+        <v>0.4582957540043152</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5454414657993928</v>
+        <v>0.5482088798089396</v>
       </c>
     </row>
     <row r="10">
@@ -5243,19 +5243,19 @@
         <v>69432</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54842</v>
+        <v>53817</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86175</v>
+        <v>84643</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2101202594761207</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1659688279172907</v>
+        <v>0.1628648914465065</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2607900970376462</v>
+        <v>0.2561548146028662</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -5264,19 +5264,19 @@
         <v>48677</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37585</v>
+        <v>38561</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59308</v>
+        <v>59326</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2240213638590036</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1729734581226036</v>
+        <v>0.1774642366757437</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2729462164919967</v>
+        <v>0.2730298845468158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>132</v>
@@ -5285,19 +5285,19 @@
         <v>118108</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99296</v>
+        <v>99706</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135875</v>
+        <v>139097</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2156349390088259</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1812878928382613</v>
+        <v>0.1820367352901743</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2480729077673732</v>
+        <v>0.2539552035838699</v>
       </c>
     </row>
     <row r="11">
@@ -5314,19 +5314,19 @@
         <v>55962</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41719</v>
+        <v>42270</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>73071</v>
+        <v>75165</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1693559377751248</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1262529771976109</v>
+        <v>0.1279212274616012</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2211333633297209</v>
+        <v>0.227469771837869</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -5335,19 +5335,19 @@
         <v>12302</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6933</v>
+        <v>7432</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21012</v>
+        <v>21107</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05661432107681239</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03190597449236789</v>
+        <v>0.03420187930456838</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09669996661174249</v>
+        <v>0.09713957209088867</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>60</v>
@@ -5356,19 +5356,19 @@
         <v>68263</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52550</v>
+        <v>49782</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>87361</v>
+        <v>85484</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1246304347528002</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09594249165587142</v>
+        <v>0.09088912290858758</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1594981239250202</v>
+        <v>0.1560704436001267</v>
       </c>
     </row>
     <row r="12">
@@ -5385,19 +5385,19 @@
         <v>70203</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54338</v>
+        <v>54820</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>88369</v>
+        <v>89168</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2124533933189384</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1644435715066696</v>
+        <v>0.1659012216496695</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.267430138090512</v>
+        <v>0.2698468886832698</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -5406,19 +5406,19 @@
         <v>16321</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10369</v>
+        <v>10226</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24564</v>
+        <v>23542</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07511282802550677</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04772061975538815</v>
+        <v>0.04706244293734539</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1130465851524844</v>
+        <v>0.1083458437102031</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>79</v>
@@ -5427,19 +5427,19 @@
         <v>86524</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>69121</v>
+        <v>68638</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>106879</v>
+        <v>105729</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1579692902165647</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1261972384815639</v>
+        <v>0.1253149327204414</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1951337748655284</v>
+        <v>0.1930334780413288</v>
       </c>
     </row>
     <row r="13">
@@ -5531,19 +5531,19 @@
         <v>61367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48269</v>
+        <v>47839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76500</v>
+        <v>76525</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3056877175070605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2404439830012474</v>
+        <v>0.2383026727746604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.381073704167229</v>
+        <v>0.3811995870471007</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>149</v>
@@ -5552,19 +5552,19 @@
         <v>120728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111509</v>
+        <v>110792</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129363</v>
+        <v>128991</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7912283523545649</v>
+        <v>0.7912283523545648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7308084869102476</v>
+        <v>0.7261087100152799</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8478199515687413</v>
+        <v>0.8453837810867545</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>201</v>
@@ -5573,19 +5573,19 @@
         <v>182094</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>162805</v>
+        <v>161725</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>202349</v>
+        <v>202669</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5153633681942548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4607717856081925</v>
+        <v>0.4577128591312117</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5726892216948766</v>
+        <v>0.5735925820319386</v>
       </c>
     </row>
     <row r="15">
@@ -5602,19 +5602,19 @@
         <v>62046</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>46972</v>
+        <v>47452</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>77454</v>
+        <v>78739</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3090736025029271</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2339856640988834</v>
+        <v>0.2363753343905683</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3858271823066112</v>
+        <v>0.3922279155441838</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>23</v>
@@ -5623,19 +5623,19 @@
         <v>17425</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11480</v>
+        <v>11538</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>24950</v>
+        <v>25239</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.114201424521396</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07523952392848973</v>
+        <v>0.07561478103451334</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1635198954670886</v>
+        <v>0.1654098585811556</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>73</v>
@@ -5644,19 +5644,19 @@
         <v>79471</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>63814</v>
+        <v>63902</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>96341</v>
+        <v>96654</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2249200882827603</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1806062198971524</v>
+        <v>0.1808551788902003</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.272663998168583</v>
+        <v>0.2735504135529699</v>
       </c>
     </row>
     <row r="16">
@@ -5673,19 +5673,19 @@
         <v>37035</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24179</v>
+        <v>24908</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50618</v>
+        <v>54449</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1844860942718992</v>
+        <v>0.1844860942718993</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1204460944686808</v>
+        <v>0.1240762967677386</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2521447362451539</v>
+        <v>0.2712312795310167</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -5694,19 +5694,19 @@
         <v>9376</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5193</v>
+        <v>5288</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16453</v>
+        <v>16011</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06144908293950603</v>
+        <v>0.06144908293950604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03403491312141718</v>
+        <v>0.03465659246182836</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1078310492476208</v>
+        <v>0.104931889423116</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -5715,19 +5715,19 @@
         <v>46412</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33545</v>
+        <v>33066</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62346</v>
+        <v>63744</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1313538463029323</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09493813797616801</v>
+        <v>0.09358380815787028</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1764529115436626</v>
+        <v>0.1804094987972451</v>
       </c>
     </row>
     <row r="17">
@@ -5744,19 +5744,19 @@
         <v>40301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27431</v>
+        <v>27233</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>59212</v>
+        <v>57253</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2007525857181132</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1366451746945822</v>
+        <v>0.1356562712489462</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2949548377451697</v>
+        <v>0.2851955696209523</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -5765,19 +5765,19 @@
         <v>5054</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2028</v>
+        <v>2004</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10233</v>
+        <v>10598</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03312114018453306</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01329022449368121</v>
+        <v>0.01313561032590674</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06706667079727535</v>
+        <v>0.06946033872245946</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -5786,19 +5786,19 @@
         <v>45355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30523</v>
+        <v>31109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>63849</v>
+        <v>63245</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1283626972200526</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0863875605694913</v>
+        <v>0.08804388271792951</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.180705251779241</v>
+        <v>0.1789949564507451</v>
       </c>
     </row>
     <row r="18">
@@ -5890,19 +5890,19 @@
         <v>147001</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>131015</v>
+        <v>130344</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>162926</v>
+        <v>163609</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6004530752796305</v>
+        <v>0.6004530752796303</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5351529707924313</v>
+        <v>0.5324127236264022</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.665502569949979</v>
+        <v>0.6682921542306893</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>220</v>
@@ -5911,19 +5911,19 @@
         <v>166513</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>155327</v>
+        <v>155593</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>176057</v>
+        <v>175422</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.812860025472015</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7582537291006609</v>
+        <v>0.7595515009573576</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8594497064875742</v>
+        <v>0.8563499954619355</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>353</v>
@@ -5932,19 +5932,19 @@
         <v>313514</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>291977</v>
+        <v>293623</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>333426</v>
+        <v>331015</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6972165124559807</v>
+        <v>0.6972165124559808</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6493219657208646</v>
+        <v>0.6529815231171283</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7414996543908152</v>
+        <v>0.7361366679600538</v>
       </c>
     </row>
     <row r="20">
@@ -5961,19 +5961,19 @@
         <v>42190</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31117</v>
+        <v>29593</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56766</v>
+        <v>54762</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1723319935062582</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1271024489956181</v>
+        <v>0.1208794405224465</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2318724160747125</v>
+        <v>0.2236838765078804</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -5982,19 +5982,19 @@
         <v>27677</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20167</v>
+        <v>20056</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38190</v>
+        <v>38061</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1351094623478224</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09844876379956134</v>
+        <v>0.09790660863345767</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1864301689109698</v>
+        <v>0.1857992220517764</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>74</v>
@@ -6003,19 +6003,19 @@
         <v>69867</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54331</v>
+        <v>56492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>86554</v>
+        <v>86758</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1553750151586486</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1208258388634058</v>
+        <v>0.1256306483071222</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1924859772425474</v>
+        <v>0.1929401630176792</v>
       </c>
     </row>
     <row r="21">
@@ -6032,19 +6032,19 @@
         <v>30646</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20549</v>
+        <v>20956</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42227</v>
+        <v>42388</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1251802640752471</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08393792445061976</v>
+        <v>0.08559984486164873</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1724842446886919</v>
+        <v>0.1731430989794445</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -6053,19 +6053,19 @@
         <v>5283</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2231</v>
+        <v>2162</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10079</v>
+        <v>9497</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02579077320500842</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01089170649475348</v>
+        <v>0.01055326360033315</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04920184443696139</v>
+        <v>0.04635933721131685</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>35</v>
@@ -6074,19 +6074,19 @@
         <v>35929</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25523</v>
+        <v>24945</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>48952</v>
+        <v>48333</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07990270254959511</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05676065802214786</v>
+        <v>0.05547489088175268</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1088643431804518</v>
+        <v>0.1074876684778707</v>
       </c>
     </row>
     <row r="22">
@@ -6103,19 +6103,19 @@
         <v>24980</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16566</v>
+        <v>16488</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35854</v>
+        <v>35492</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1020346671388644</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06766861443305883</v>
+        <v>0.06734963996810527</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1464536852434383</v>
+        <v>0.1449732511786692</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -6124,19 +6124,19 @@
         <v>5375</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2190</v>
+        <v>2292</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10762</v>
+        <v>10769</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02623973897515405</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01069089910279006</v>
+        <v>0.01118756128606213</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05253893318205759</v>
+        <v>0.05257165152889437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -6145,19 +6145,19 @@
         <v>30355</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21381</v>
+        <v>21118</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42381</v>
+        <v>43225</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06750576983577543</v>
+        <v>0.06750576983577544</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04754833944281475</v>
+        <v>0.04696377301205904</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09424997742506841</v>
+        <v>0.09612633629755367</v>
       </c>
     </row>
     <row r="23">
@@ -6249,19 +6249,19 @@
         <v>391057</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>355987</v>
+        <v>356824</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>423257</v>
+        <v>425271</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4035605099242809</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3673684725357843</v>
+        <v>0.3682326204500111</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4367899026389093</v>
+        <v>0.4388676600147892</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>673</v>
@@ -6270,19 +6270,19 @@
         <v>507217</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>484288</v>
+        <v>486718</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>525922</v>
+        <v>528472</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7130615660344913</v>
+        <v>0.7130615660344912</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.680826854620771</v>
+        <v>0.6842432433898815</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7393569545381776</v>
+        <v>0.7429429957204138</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1009</v>
@@ -6291,19 +6291,19 @@
         <v>898275</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>854865</v>
+        <v>855840</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>941395</v>
+        <v>940730</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5345787397255829</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5087449154458217</v>
+        <v>0.5093251119807317</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5602405524239179</v>
+        <v>0.5598445493720561</v>
       </c>
     </row>
     <row r="25">
@@ -6320,19 +6320,19 @@
         <v>230145</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>202585</v>
+        <v>201708</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>259077</v>
+        <v>260644</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2375034137852558</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2090623835457699</v>
+        <v>0.2081567199034659</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2673607343126264</v>
+        <v>0.2689775653955424</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>157</v>
@@ -6341,19 +6341,19 @@
         <v>115854</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>99376</v>
+        <v>97632</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>133456</v>
+        <v>134236</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1628711575446716</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1397059665403142</v>
+        <v>0.1372545236105027</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1876163306278538</v>
+        <v>0.1887128506718974</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>362</v>
@@ -6362,19 +6362,19 @@
         <v>345999</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>313943</v>
+        <v>313336</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>380424</v>
+        <v>379967</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.205910028542536</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1868326272338147</v>
+        <v>0.1864719233823363</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2263969098150264</v>
+        <v>0.2261249010999922</v>
       </c>
     </row>
     <row r="26">
@@ -6391,19 +6391,19 @@
         <v>150765</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>126139</v>
+        <v>127247</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>179942</v>
+        <v>179282</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1555855634305799</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1301716339192815</v>
+        <v>0.1313153121667335</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1856950698630286</v>
+        <v>0.1850143668596922</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -6412,19 +6412,19 @@
         <v>38140</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28070</v>
+        <v>28874</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51608</v>
+        <v>51271</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05361891388193688</v>
+        <v>0.05361891388193687</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03946157875928139</v>
+        <v>0.04059176293654137</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07255272340359323</v>
+        <v>0.07207810255694648</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>173</v>
@@ -6433,19 +6433,19 @@
         <v>188906</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>160629</v>
+        <v>163796</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>217463</v>
+        <v>221738</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1124209613754717</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09559286838471737</v>
+        <v>0.09747756185414158</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1294162520950494</v>
+        <v>0.1319602467832226</v>
       </c>
     </row>
     <row r="27">
@@ -6462,19 +6462,19 @@
         <v>197050</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>167117</v>
+        <v>167182</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>228537</v>
+        <v>224574</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2033505128598835</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.172459704039486</v>
+        <v>0.1725270984365757</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2358443548373759</v>
+        <v>0.2317546793277711</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>64</v>
@@ -6483,19 +6483,19 @@
         <v>50112</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>38833</v>
+        <v>39249</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>64431</v>
+        <v>65072</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.07044836253890027</v>
+        <v>0.07044836253890026</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05459253234349871</v>
+        <v>0.05517740533526379</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09057875118637967</v>
+        <v>0.09148091454645078</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>220</v>
@@ -6504,19 +6504,19 @@
         <v>247162</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>215932</v>
+        <v>215033</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>280793</v>
+        <v>278256</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1470902703564094</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1285051316161486</v>
+        <v>0.1279698698188748</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.167104987216594</v>
+        <v>0.1655951154519309</v>
       </c>
     </row>
     <row r="28">
